--- a/学习内容.xlsx
+++ b/学习内容.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>学习模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -32,12 +32,32 @@
   <si>
     <t>http://jntemplate.codeplex.com/</t>
   </si>
+  <si>
+    <r>
+      <t>js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模板引擎</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pegjs.org/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,6 +78,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -76,15 +103,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -376,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -400,10 +433,21 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/学习内容.xlsx
+++ b/学习内容.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>学习模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,6 +50,126 @@
   </si>
   <si>
     <t>https://pegjs.org/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPOI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>NPOI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是指构建在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>POI 3.x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本之上的一个程序，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>NPOI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可以在没有安装</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Office</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的情况下对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Word</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Excel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文档进行读写操作</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -439,6 +559,14 @@
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/学习内容.xlsx
+++ b/学习内容.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>学习模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -171,13 +171,28 @@
       <t>文档进行读写操作</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://kb.cnblogs.com/page/129756/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>浏览器内部工作原理</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,6 +220,13 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -214,12 +236,21 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -230,10 +261,13 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -529,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -569,13 +603,22 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:2" ht="42.75">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="A5" r:id="rId2" display="https://kb.cnblogs.com/page/129756/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/学习内容.xlsx
+++ b/学习内容.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\git\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>学习模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,13 +191,33 @@
       </rPr>
       <t>浏览器内部工作原理</t>
     </r>
+  </si>
+  <si>
+    <t>DotLiquid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DotLiquid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模板引擎简介</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,11 +300,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -321,7 +354,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -353,9 +386,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -387,6 +438,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -562,16 +631,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -579,7 +648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -587,7 +656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -595,7 +664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -603,12 +672,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="42.75">
+    <row r="5" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -618,17 +695,17 @@
     <hyperlink ref="A5" r:id="rId2" display="https://kb.cnblogs.com/page/129756/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -636,12 +713,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
